--- a/Tools/ExcelTool/Excel/RoleConfig.xlsx
+++ b/Tools/ExcelTool/Excel/RoleConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,13 +137,34 @@
   <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图集</t>
+  </si>
+  <si>
+    <t>帧率</t>
+  </si>
+  <si>
+    <t>AsltasPath</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role2.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +194,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,10 +232,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,18 +249,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -515,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -527,15 +573,19 @@
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -548,26 +598,32 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -580,26 +636,32 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -612,26 +674,32 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -644,26 +712,32 @@
       <c r="E5" s="1">
         <v>10001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>2300</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>5.2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1002</v>
       </c>
@@ -676,22 +750,28 @@
       <c r="E6" s="1">
         <v>10002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>18</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>256</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>125</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>3.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Tools/ExcelTool/Excel/RoleConfig.xlsx
+++ b/Tools/ExcelTool/Excel/RoleConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>Assets/Download/Texture/Role/Role2.png</t>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,7 +568,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -713,7 +717,7 @@
         <v>10001</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
@@ -731,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="1">
         <v>0.8</v>
@@ -769,7 +773,7 @@
         <v>125</v>
       </c>
       <c r="L6" s="1">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>

--- a/Tools/ExcelTool/Excel/RoleConfig.xlsx
+++ b/Tools/ExcelTool/Excel/RoleConfig.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Tools/ExcelTool/Excel/RoleConfig.xlsx
+++ b/Tools/ExcelTool/Excel/RoleConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预制体Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +153,26 @@
   </si>
   <si>
     <t>Assets/Download/Texture/Role/Role1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestMonster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestMonster2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestMonster3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestMonster4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -600,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -618,13 +630,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -638,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -656,13 +668,13 @@
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,13 +688,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -694,13 +706,13 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -717,7 +729,7 @@
         <v>10001</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
@@ -743,19 +755,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>10002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
@@ -776,6 +788,120 @@
         <v>2.1</v>
       </c>
       <c r="M6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
+        <v>365</v>
+      </c>
+      <c r="K7" s="6">
+        <v>80</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6">
+        <v>390</v>
+      </c>
+      <c r="K8" s="6">
+        <v>130</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6">
+        <v>42</v>
+      </c>
+      <c r="J9" s="6">
+        <v>280</v>
+      </c>
+      <c r="K9" s="6">
+        <v>150</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="M9" s="6">
         <v>3</v>
       </c>
     </row>

--- a/Tools/ExcelTool/Excel/RoleConfig.xlsx
+++ b/Tools/ExcelTool/Excel/RoleConfig.xlsx
@@ -149,13 +149,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>Assets/Download/Texture/Role/Role2.png</t>
-  </si>
-  <si>
-    <t>Assets/Download/Texture/Role/Role1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试小怪1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +166,14 @@
   </si>
   <si>
     <t>TestMonster4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role1_Walk.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role2_Walk.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +581,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -589,7 +590,7 @@
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -729,13 +730,13 @@
         <v>10001</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1">
         <v>12</v>
@@ -758,16 +759,16 @@
         <v>2002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>10002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
@@ -796,16 +797,16 @@
         <v>2003</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6">
         <v>10002</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
@@ -834,16 +835,16 @@
         <v>2004</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6">
         <v>10002</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
@@ -872,16 +873,16 @@
         <v>2005</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6">
         <v>10002</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>6</v>

--- a/Tools/ExcelTool/Excel/RoleConfig.xlsx
+++ b/Tools/ExcelTool/Excel/RoleConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,11 +169,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Download/Texture/Role/Role1_Walk.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Download/Texture/Role/Role2_Walk.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role3_Walk.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role4_Walk.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role5_Walk.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试防御塔升级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role1_Idle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Texture/Role/Role6_Idle.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -589,20 +625,21 @@
     <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="16.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -612,35 +649,38 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -650,35 +690,38 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -688,17 +731,17 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
@@ -707,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>28</v>
@@ -715,8 +758,11 @@
       <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -726,183 +772,239 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F5" s="1">
         <v>10001</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2300</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>80</v>
+      </c>
+      <c r="J6" s="6">
+        <v>18</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2800</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10002</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2300</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.8</v>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1">
+        <v>256</v>
+      </c>
+      <c r="L7" s="1">
+        <v>125</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10002</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1">
-        <v>256</v>
-      </c>
-      <c r="K6" s="1">
-        <v>125</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>2003</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6">
-        <v>10002</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
-        <v>365</v>
-      </c>
-      <c r="K7" s="6">
-        <v>80</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>2004</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>10002</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>20</v>
       </c>
-      <c r="I8" s="6">
-        <v>30</v>
-      </c>
       <c r="J8" s="6">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="K8" s="6">
-        <v>130</v>
+        <v>365</v>
       </c>
       <c r="L8" s="6">
+        <v>80</v>
+      </c>
+      <c r="M8" s="6">
         <v>2.1</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>10002</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6">
         <v>6</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>20</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
+        <v>30</v>
+      </c>
+      <c r="K9" s="6">
+        <v>390</v>
+      </c>
+      <c r="L9" s="6">
+        <v>130</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10002</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6">
         <v>42</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K10" s="6">
         <v>280</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L10" s="6">
         <v>150</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M10" s="6">
         <v>2.1</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N10" s="6">
         <v>3</v>
       </c>
     </row>
